--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Hras-Agtr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Hras-Agtr1a.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.567183666666668</v>
+        <v>9.697207333333333</v>
       </c>
       <c r="H2">
-        <v>22.701551</v>
+        <v>29.091622</v>
       </c>
       <c r="I2">
-        <v>0.2104710071241515</v>
+        <v>0.3243108558382838</v>
       </c>
       <c r="J2">
-        <v>0.2104710071241516</v>
+        <v>0.3243108558382838</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.5610396666666666</v>
+        <v>0.6100786666666667</v>
       </c>
       <c r="N2">
-        <v>1.683119</v>
+        <v>1.830236</v>
       </c>
       <c r="O2">
-        <v>0.04888859506813144</v>
+        <v>0.06402955811028149</v>
       </c>
       <c r="P2">
-        <v>0.04888859506813144</v>
+        <v>0.06402955811028149</v>
       </c>
       <c r="Q2">
-        <v>4.245490201952111</v>
+        <v>5.916059320310222</v>
       </c>
       <c r="R2">
-        <v>38.209411817569</v>
+        <v>53.244533882792</v>
       </c>
       <c r="S2">
-        <v>0.01028963184087445</v>
+        <v>0.02076548078969252</v>
       </c>
       <c r="T2">
-        <v>0.01028963184087445</v>
+        <v>0.02076548078969252</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.567183666666668</v>
+        <v>9.697207333333333</v>
       </c>
       <c r="H3">
-        <v>22.701551</v>
+        <v>29.091622</v>
       </c>
       <c r="I3">
-        <v>0.2104710071241515</v>
+        <v>0.3243108558382838</v>
       </c>
       <c r="J3">
-        <v>0.2104710071241516</v>
+        <v>0.3243108558382838</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.236132333333334</v>
+        <v>7.236132333333333</v>
       </c>
       <c r="N3">
         <v>21.708397</v>
       </c>
       <c r="O3">
-        <v>0.630551393283089</v>
+        <v>0.7594534623909487</v>
       </c>
       <c r="P3">
-        <v>0.6305513932830891</v>
+        <v>0.7594534623909487</v>
       </c>
       <c r="Q3">
-        <v>54.75714240263856</v>
+        <v>70.17027552777044</v>
       </c>
       <c r="R3">
-        <v>492.8142816237471</v>
+        <v>631.5324797499339</v>
       </c>
       <c r="S3">
-        <v>0.1327127867878287</v>
+        <v>0.2462990023573565</v>
       </c>
       <c r="T3">
-        <v>0.1327127867878287</v>
+        <v>0.2462990023573564</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.567183666666668</v>
+        <v>9.697207333333333</v>
       </c>
       <c r="H4">
-        <v>22.701551</v>
+        <v>29.091622</v>
       </c>
       <c r="I4">
-        <v>0.2104710071241515</v>
+        <v>0.3243108558382838</v>
       </c>
       <c r="J4">
-        <v>0.2104710071241516</v>
+        <v>0.3243108558382838</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.678708333333333</v>
+        <v>1.681867666666667</v>
       </c>
       <c r="N4">
-        <v>11.036125</v>
+        <v>5.045603</v>
       </c>
       <c r="O4">
-        <v>0.3205600116487795</v>
+        <v>0.1765169794987699</v>
       </c>
       <c r="P4">
-        <v>0.3205600116487795</v>
+        <v>0.1765169794987699</v>
       </c>
       <c r="Q4">
-        <v>27.83746161443056</v>
+        <v>16.30941947089622</v>
       </c>
       <c r="R4">
-        <v>250.537154529875</v>
+        <v>146.784775238066</v>
       </c>
       <c r="S4">
-        <v>0.06746858849544837</v>
+        <v>0.05724637269123486</v>
       </c>
       <c r="T4">
-        <v>0.06746858849544839</v>
+        <v>0.05724637269123486</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>25.352955</v>
       </c>
       <c r="I5">
-        <v>0.2350527491457871</v>
+        <v>0.2826325233457075</v>
       </c>
       <c r="J5">
-        <v>0.2350527491457872</v>
+        <v>0.2826325233457074</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.5610396666666666</v>
+        <v>0.6100786666666667</v>
       </c>
       <c r="N5">
-        <v>1.683119</v>
+        <v>1.830236</v>
       </c>
       <c r="O5">
-        <v>0.04888859506813144</v>
+        <v>0.06402955811028149</v>
       </c>
       <c r="P5">
-        <v>0.04888859506813144</v>
+        <v>0.06402955811028149</v>
       </c>
       <c r="Q5">
-        <v>4.741337807405</v>
+        <v>5.15576566082</v>
       </c>
       <c r="R5">
-        <v>42.672040266645</v>
+        <v>46.40189094738</v>
       </c>
       <c r="S5">
-        <v>0.01149139867263946</v>
+        <v>0.01809683557741947</v>
       </c>
       <c r="T5">
-        <v>0.01149139867263947</v>
+        <v>0.01809683557741947</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>25.352955</v>
       </c>
       <c r="I6">
-        <v>0.2350527491457871</v>
+        <v>0.2826325233457075</v>
       </c>
       <c r="J6">
-        <v>0.2350527491457872</v>
+        <v>0.2826325233457074</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.236132333333334</v>
+        <v>7.236132333333333</v>
       </c>
       <c r="N6">
         <v>21.708397</v>
       </c>
       <c r="O6">
-        <v>0.630551393283089</v>
+        <v>0.7594534623909487</v>
       </c>
       <c r="P6">
-        <v>0.6305513932830891</v>
+        <v>0.7594534623909487</v>
       </c>
       <c r="Q6">
         <v>61.15244580701501</v>
       </c>
       <c r="R6">
-        <v>550.372012263135</v>
+        <v>550.3720122631349</v>
       </c>
       <c r="S6">
-        <v>0.1482128384688965</v>
+        <v>0.2146462484391882</v>
       </c>
       <c r="T6">
-        <v>0.1482128384688965</v>
+        <v>0.2146462484391881</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>25.352955</v>
       </c>
       <c r="I7">
-        <v>0.2350527491457871</v>
+        <v>0.2826325233457075</v>
       </c>
       <c r="J7">
-        <v>0.2350527491457872</v>
+        <v>0.2826325233457074</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.678708333333333</v>
+        <v>1.681867666666667</v>
       </c>
       <c r="N7">
-        <v>11.036125</v>
+        <v>5.045603</v>
       </c>
       <c r="O7">
-        <v>0.3205600116487795</v>
+        <v>0.1765169794987699</v>
       </c>
       <c r="P7">
-        <v>0.3205600116487795</v>
+        <v>0.1765169794987699</v>
       </c>
       <c r="Q7">
-        <v>31.088708944375</v>
+        <v>14.213438422985</v>
       </c>
       <c r="R7">
-        <v>279.798380499375</v>
+        <v>127.920945806865</v>
       </c>
       <c r="S7">
-        <v>0.07534851200425118</v>
+        <v>0.04988943932909986</v>
       </c>
       <c r="T7">
-        <v>0.07534851200425118</v>
+        <v>0.04988943932909985</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.443581333333332</v>
+        <v>3.910524</v>
       </c>
       <c r="H8">
-        <v>28.330744</v>
+        <v>11.731572</v>
       </c>
       <c r="I8">
-        <v>0.2626604773504908</v>
+        <v>0.1307825378608469</v>
       </c>
       <c r="J8">
-        <v>0.2626604773504909</v>
+        <v>0.1307825378608469</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,28 +930,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.5610396666666666</v>
+        <v>0.6100786666666667</v>
       </c>
       <c r="N8">
-        <v>1.683119</v>
+        <v>1.830236</v>
       </c>
       <c r="O8">
-        <v>0.04888859506813144</v>
+        <v>0.06402955811028149</v>
       </c>
       <c r="P8">
-        <v>0.04888859506813144</v>
+        <v>0.06402955811028149</v>
       </c>
       <c r="Q8">
-        <v>5.298223723392888</v>
+        <v>2.385727267888</v>
       </c>
       <c r="R8">
-        <v>47.68401351053599</v>
+        <v>21.471545410992</v>
       </c>
       <c r="S8">
-        <v>0.01284110171759025</v>
+        <v>0.008373948107771187</v>
       </c>
       <c r="T8">
-        <v>0.01284110171759026</v>
+        <v>0.008373948107771185</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.443581333333332</v>
+        <v>3.910524</v>
       </c>
       <c r="H9">
-        <v>28.330744</v>
+        <v>11.731572</v>
       </c>
       <c r="I9">
-        <v>0.2626604773504908</v>
+        <v>0.1307825378608469</v>
       </c>
       <c r="J9">
-        <v>0.2626604773504909</v>
+        <v>0.1307825378608469</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.236132333333334</v>
+        <v>7.236132333333333</v>
       </c>
       <c r="N9">
         <v>21.708397</v>
       </c>
       <c r="O9">
-        <v>0.630551393283089</v>
+        <v>0.7594534623909487</v>
       </c>
       <c r="P9">
-        <v>0.6305513932830891</v>
+        <v>0.7594534623909487</v>
       </c>
       <c r="Q9">
-        <v>68.33500422859645</v>
+        <v>28.297069156676</v>
       </c>
       <c r="R9">
-        <v>615.015038057368</v>
+        <v>254.673622410084</v>
       </c>
       <c r="S9">
-        <v>0.1656209299537532</v>
+        <v>0.09932325119869553</v>
       </c>
       <c r="T9">
-        <v>0.1656209299537533</v>
+        <v>0.09932325119869551</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.443581333333332</v>
+        <v>3.910524</v>
       </c>
       <c r="H10">
-        <v>28.330744</v>
+        <v>11.731572</v>
       </c>
       <c r="I10">
-        <v>0.2626604773504908</v>
+        <v>0.1307825378608469</v>
       </c>
       <c r="J10">
-        <v>0.2626604773504909</v>
+        <v>0.1307825378608469</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.678708333333333</v>
+        <v>1.681867666666667</v>
       </c>
       <c r="N10">
-        <v>11.036125</v>
+        <v>5.045603</v>
       </c>
       <c r="O10">
-        <v>0.3205600116487795</v>
+        <v>0.1765169794987699</v>
       </c>
       <c r="P10">
-        <v>0.3205600116487795</v>
+        <v>0.1765169794987699</v>
       </c>
       <c r="Q10">
-        <v>34.74018134744444</v>
+        <v>6.576983875323999</v>
       </c>
       <c r="R10">
-        <v>312.661632127</v>
+        <v>59.192854877916</v>
       </c>
       <c r="S10">
-        <v>0.08419844567914732</v>
+        <v>0.02308533855438021</v>
       </c>
       <c r="T10">
-        <v>0.08419844567914733</v>
+        <v>0.02308533855438021</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.103880666666666</v>
+        <v>3.066674</v>
       </c>
       <c r="H11">
-        <v>12.311642</v>
+        <v>9.200022000000001</v>
       </c>
       <c r="I11">
-        <v>0.1141439054579135</v>
+        <v>0.1025610400324547</v>
       </c>
       <c r="J11">
-        <v>0.1141439054579136</v>
+        <v>0.1025610400324547</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1116,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.5610396666666666</v>
+        <v>0.6100786666666667</v>
       </c>
       <c r="N11">
-        <v>1.683119</v>
+        <v>1.830236</v>
       </c>
       <c r="O11">
-        <v>0.04888859506813144</v>
+        <v>0.06402955811028149</v>
       </c>
       <c r="P11">
-        <v>0.04888859506813144</v>
+        <v>0.06402955811028149</v>
       </c>
       <c r="Q11">
-        <v>2.302439841266444</v>
+        <v>1.870912385021334</v>
       </c>
       <c r="R11">
-        <v>20.72195857139799</v>
+        <v>16.838211465192</v>
       </c>
       <c r="S11">
-        <v>0.005580335173427013</v>
+        <v>0.006566938072608965</v>
       </c>
       <c r="T11">
-        <v>0.005580335173427014</v>
+        <v>0.006566938072608964</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.103880666666666</v>
+        <v>3.066674</v>
       </c>
       <c r="H12">
-        <v>12.311642</v>
+        <v>9.200022000000001</v>
       </c>
       <c r="I12">
-        <v>0.1141439054579135</v>
+        <v>0.1025610400324547</v>
       </c>
       <c r="J12">
-        <v>0.1141439054579136</v>
+        <v>0.1025610400324547</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.236132333333334</v>
+        <v>7.236132333333333</v>
       </c>
       <c r="N12">
         <v>21.708397</v>
       </c>
       <c r="O12">
-        <v>0.630551393283089</v>
+        <v>0.7594534623909487</v>
       </c>
       <c r="P12">
-        <v>0.6305513932830891</v>
+        <v>0.7594534623909487</v>
       </c>
       <c r="Q12">
-        <v>29.69622358420822</v>
+        <v>22.19085888719267</v>
       </c>
       <c r="R12">
-        <v>267.266012257874</v>
+        <v>199.717729984734</v>
       </c>
       <c r="S12">
-        <v>0.07197359862126057</v>
+        <v>0.07789033695906443</v>
       </c>
       <c r="T12">
-        <v>0.07197359862126058</v>
+        <v>0.0778903369590644</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.103880666666666</v>
+        <v>3.066674</v>
       </c>
       <c r="H13">
-        <v>12.311642</v>
+        <v>9.200022000000001</v>
       </c>
       <c r="I13">
-        <v>0.1141439054579135</v>
+        <v>0.1025610400324547</v>
       </c>
       <c r="J13">
-        <v>0.1141439054579136</v>
+        <v>0.1025610400324547</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.678708333333333</v>
+        <v>1.681867666666667</v>
       </c>
       <c r="N13">
-        <v>11.036125</v>
+        <v>5.045603</v>
       </c>
       <c r="O13">
-        <v>0.3205600116487795</v>
+        <v>0.1765169794987699</v>
       </c>
       <c r="P13">
-        <v>0.3205600116487795</v>
+        <v>0.1765169794987699</v>
       </c>
       <c r="Q13">
-        <v>15.09698000747222</v>
+        <v>5.157739844807334</v>
       </c>
       <c r="R13">
-        <v>135.87282006725</v>
+        <v>46.419658603266</v>
       </c>
       <c r="S13">
-        <v>0.03658997166322595</v>
+        <v>0.01810376500078132</v>
       </c>
       <c r="T13">
-        <v>0.03658997166322596</v>
+        <v>0.01810376500078132</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.387937333333333</v>
+        <v>4.775574</v>
       </c>
       <c r="H14">
-        <v>19.163812</v>
+        <v>14.326722</v>
       </c>
       <c r="I14">
-        <v>0.1776718609216568</v>
+        <v>0.1597130429227071</v>
       </c>
       <c r="J14">
-        <v>0.1776718609216569</v>
+        <v>0.159713042922707</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,28 +1302,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.5610396666666666</v>
+        <v>0.6100786666666667</v>
       </c>
       <c r="N14">
-        <v>1.683119</v>
+        <v>1.830236</v>
       </c>
       <c r="O14">
-        <v>0.04888859506813144</v>
+        <v>0.06402955811028149</v>
       </c>
       <c r="P14">
-        <v>0.04888859506813144</v>
+        <v>0.06402955811028149</v>
       </c>
       <c r="Q14">
-        <v>3.583886232180888</v>
+        <v>2.913475818488</v>
       </c>
       <c r="R14">
-        <v>32.25497608962799</v>
+        <v>26.221282366392</v>
       </c>
       <c r="S14">
-        <v>0.008686127663600248</v>
+        <v>0.01022635556278935</v>
       </c>
       <c r="T14">
-        <v>0.008686127663600249</v>
+        <v>0.01022635556278935</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.387937333333333</v>
+        <v>4.775574</v>
       </c>
       <c r="H15">
-        <v>19.163812</v>
+        <v>14.326722</v>
       </c>
       <c r="I15">
-        <v>0.1776718609216568</v>
+        <v>0.1597130429227071</v>
       </c>
       <c r="J15">
-        <v>0.1776718609216569</v>
+        <v>0.159713042922707</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.236132333333334</v>
+        <v>7.236132333333333</v>
       </c>
       <c r="N15">
         <v>21.708397</v>
       </c>
       <c r="O15">
-        <v>0.630551393283089</v>
+        <v>0.7594534623909487</v>
       </c>
       <c r="P15">
-        <v>0.6305513932830891</v>
+        <v>0.7594534623909487</v>
       </c>
       <c r="Q15">
-        <v>46.22395988104045</v>
+        <v>34.55668543162599</v>
       </c>
       <c r="R15">
-        <v>416.015638929364</v>
+        <v>311.010168884634</v>
       </c>
       <c r="S15">
-        <v>0.1120312394513499</v>
+        <v>0.1212946234366441</v>
       </c>
       <c r="T15">
-        <v>0.11203123945135</v>
+        <v>0.1212946234366441</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.387937333333333</v>
+        <v>4.775574</v>
       </c>
       <c r="H16">
-        <v>19.163812</v>
+        <v>14.326722</v>
       </c>
       <c r="I16">
-        <v>0.1776718609216568</v>
+        <v>0.1597130429227071</v>
       </c>
       <c r="J16">
-        <v>0.1776718609216569</v>
+        <v>0.159713042922707</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.678708333333333</v>
+        <v>1.681867666666667</v>
       </c>
       <c r="N16">
-        <v>11.036125</v>
+        <v>5.045603</v>
       </c>
       <c r="O16">
-        <v>0.3205600116487795</v>
+        <v>0.1765169794987699</v>
       </c>
       <c r="P16">
-        <v>0.3205600116487795</v>
+        <v>0.1765169794987699</v>
       </c>
       <c r="Q16">
-        <v>23.49935830094444</v>
+        <v>8.031883500373999</v>
       </c>
       <c r="R16">
-        <v>211.4942247085</v>
+        <v>72.286951503366</v>
       </c>
       <c r="S16">
-        <v>0.05695449380670665</v>
+        <v>0.02819206392327364</v>
       </c>
       <c r="T16">
-        <v>0.05695449380670666</v>
+        <v>0.02819206392327364</v>
       </c>
     </row>
   </sheetData>
